--- a/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_3/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.16072776029793</v>
+        <v>1.160727760297915</v>
       </c>
       <c r="H2" t="n">
         <v>140.5542445938184</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-15.62437231802786</v>
+        <v>-15.62437231802785</v>
       </c>
       <c r="H5" t="n">
         <v>142.1055951920094</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-13.60313747393955</v>
+        <v>-13.60313747393956</v>
       </c>
       <c r="H7" t="n">
-        <v>121.452528610096</v>
+        <v>121.4525286100961</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>138.7750464612636</v>
       </c>
       <c r="H8" t="n">
-        <v>101.7743950924117</v>
+        <v>101.7743950924118</v>
       </c>
     </row>
     <row r="9">
@@ -798,7 +798,7 @@
         <v>119.0131629306599</v>
       </c>
       <c r="H12" t="n">
-        <v>88.18647542989805</v>
+        <v>88.18647542989802</v>
       </c>
     </row>
     <row r="13">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>94.59057865043576</v>
+        <v>94.59057865043575</v>
       </c>
       <c r="H13" t="n">
-        <v>85.70734480310955</v>
+        <v>85.70734480310956</v>
       </c>
     </row>
     <row r="14">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>110.1962405690907</v>
+        <v>110.1962405690906</v>
       </c>
       <c r="H14" t="n">
-        <v>75.7764140655747</v>
+        <v>75.77641406557473</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>117.9143894556062</v>
       </c>
       <c r="H17" t="n">
-        <v>78.05929175164583</v>
+        <v>78.0592917516458</v>
       </c>
     </row>
     <row r="18">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>99.82721664040429</v>
+        <v>99.8272166404043</v>
       </c>
       <c r="H18" t="n">
-        <v>75.92004732000557</v>
+        <v>75.92004732000554</v>
       </c>
     </row>
     <row r="19">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>93.50411927372009</v>
+        <v>93.50411927372008</v>
       </c>
       <c r="H19" t="n">
-        <v>72.21078900836179</v>
+        <v>72.21078900836181</v>
       </c>
     </row>
     <row r="20">
@@ -1038,7 +1038,7 @@
         <v>179.0723019721063</v>
       </c>
       <c r="H20" t="n">
-        <v>77.50706150925893</v>
+        <v>77.50706150925895</v>
       </c>
     </row>
     <row r="21">
@@ -1128,7 +1128,7 @@
         <v>119.1639618666969</v>
       </c>
       <c r="H23" t="n">
-        <v>80.2711775035056</v>
+        <v>80.27117750350557</v>
       </c>
     </row>
     <row r="24">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>148.4829621830517</v>
+        <v>148.4829621830516</v>
       </c>
       <c r="H24" t="n">
-        <v>80.92552639037618</v>
+        <v>80.92552639037621</v>
       </c>
     </row>
     <row r="25">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>104.243518223269</v>
+        <v>104.2435182232689</v>
       </c>
       <c r="H25" t="n">
-        <v>84.88892736577678</v>
+        <v>84.88892736577679</v>
       </c>
     </row>
     <row r="26">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>123.6683293356453</v>
+        <v>123.6683293356454</v>
       </c>
       <c r="H26" t="n">
-        <v>85.3426985970091</v>
+        <v>85.34269859700906</v>
       </c>
     </row>
     <row r="27">
@@ -1248,7 +1248,7 @@
         <v>101.0910421265999</v>
       </c>
       <c r="H27" t="n">
-        <v>83.96757316952237</v>
+        <v>83.96757316952241</v>
       </c>
     </row>
     <row r="28">
@@ -1398,7 +1398,7 @@
         <v>102.8592490962031</v>
       </c>
       <c r="H32" t="n">
-        <v>83.6563271161672</v>
+        <v>83.65632711616722</v>
       </c>
     </row>
     <row r="33">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>74.18820484971707</v>
+        <v>74.1882048497171</v>
       </c>
       <c r="H35" t="n">
         <v>128.7062506087403</v>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-60.64817374803116</v>
+        <v>-60.64817374803119</v>
       </c>
       <c r="H36" t="n">
         <v>135.2815557164383</v>
@@ -1548,7 +1548,7 @@
         <v>149.364154724137</v>
       </c>
       <c r="H37" t="n">
-        <v>95.55809817069529</v>
+        <v>95.55809817069532</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>162.3670607424449</v>
       </c>
       <c r="H39" t="n">
-        <v>81.31439855591374</v>
+        <v>81.31439855591371</v>
       </c>
     </row>
     <row r="40">
@@ -1638,7 +1638,7 @@
         <v>124.907189302946</v>
       </c>
       <c r="H40" t="n">
-        <v>92.88374773414755</v>
+        <v>92.88374773414758</v>
       </c>
     </row>
     <row r="41">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.422567943324621</v>
+        <v>8.422567943324653</v>
       </c>
       <c r="H41" t="n">
-        <v>94.44182562838728</v>
+        <v>94.44182562838725</v>
       </c>
     </row>
     <row r="42">
@@ -1698,7 +1698,7 @@
         <v>139.1658246931128</v>
       </c>
       <c r="H42" t="n">
-        <v>80.32891153302569</v>
+        <v>80.32891153302567</v>
       </c>
     </row>
     <row r="43">
@@ -1728,7 +1728,7 @@
         <v>101.632783843821</v>
       </c>
       <c r="H43" t="n">
-        <v>87.99946607226022</v>
+        <v>87.9994660722602</v>
       </c>
     </row>
     <row r="44">
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>169.1138069741609</v>
+        <v>169.113806974161</v>
       </c>
       <c r="H45" t="n">
-        <v>73.76984790036583</v>
+        <v>73.76984790036578</v>
       </c>
     </row>
     <row r="46">
@@ -1818,7 +1818,7 @@
         <v>148.2467801739122</v>
       </c>
       <c r="H46" t="n">
-        <v>75.84617475529092</v>
+        <v>75.84617475529097</v>
       </c>
     </row>
     <row r="47">
@@ -1848,7 +1848,7 @@
         <v>129.0959800397597</v>
       </c>
       <c r="H47" t="n">
-        <v>76.25002206539811</v>
+        <v>76.25002206539814</v>
       </c>
     </row>
     <row r="48">
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>128.6421885942549</v>
+        <v>128.6421885942548</v>
       </c>
       <c r="H48" t="n">
-        <v>74.74804213539699</v>
+        <v>74.748042135397</v>
       </c>
     </row>
     <row r="49">
@@ -1908,7 +1908,7 @@
         <v>136.4582897182727</v>
       </c>
       <c r="H49" t="n">
-        <v>73.45904103506889</v>
+        <v>73.45904103506885</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>136.5034783615233</v>
+        <v>136.5034783615232</v>
       </c>
       <c r="H50" t="n">
-        <v>73.95751839105598</v>
+        <v>73.95751839105603</v>
       </c>
     </row>
     <row r="51">
@@ -1968,7 +1968,7 @@
         <v>130.6648988170639</v>
       </c>
       <c r="H51" t="n">
-        <v>73.58983932793349</v>
+        <v>73.58983932793343</v>
       </c>
     </row>
   </sheetData>
